--- a/Results/Evaluations/Relevance/RQ1.xlsx
+++ b/Results/Evaluations/Relevance/RQ1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Articles\12-ASE\Submission\Results\Evaluations\Relevance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Articles\12-ASE\Submission_Major\Results\Evaluations\Relevance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21943D43-8ED0-44B5-BA9F-FAFE74C70F89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD8AA8F-4CCF-4877-B210-D80739EC353D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7250" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GPT" sheetId="1" r:id="rId1"/>
@@ -13924,163 +13924,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1. The user should be able to iput music videos in the search.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. The search results for the given music videos should be music or ringback tones.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3. The search results should be returned based on the content similarity on genre, tempo, beat, and instrumental arragenment.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4. The search results should be listed with similarity percentages.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">5. The search results could be sorted by different orders: similarity, release date, popularity, rating.
-6. The search results could be filtered by different conditions: similarity, release date.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">7. Proper search handling mechnism, such as partial match.
-8. For failuare search results, propser message should be prompt.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9. The system should provide a preview option for users to listen to a snippet of the results.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10. When there is large amount of similar results being returned, the display of the results should be no significant delay or latency.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-11. The results should be displayed by pages, for each page consist of X results. The number of total results and pages should be correctly displayed.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">User Story: 
-As a user, I want to search and discover music or ringback tones similar to a given music video based on content similarity.	
-Acceptance Criteria:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>1. The user should be able to iput music videos in the search.
 2. The search results for the given music videos should be music or ringback tones.
 3. The search results should be returned based on the content similarity on genre, tempo, beat, and instrumental arragenment.</t>
@@ -23588,36 +23431,6 @@
       </rPr>
       <t>2. The depositor should be able to create a deposit account for others to deposit account for their behalf.
 3. The depositor should be able to create a deposit account for their role.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Acceptance Criteria (generated from Model #1)
-1. The user should be able to deposit arbitrarily large files, up to a maximum size of 100MB.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. The user should be able to deposit files of any type, including text, images, audio, and video.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3. The user should be able to deposit files that are already stored on the platform, or files that are uploaded from a local device.
-4. The user should be able to deposit files that are stored in a variety of formats, including text, images, audio, and video.</t>
     </r>
   </si>
   <si>
@@ -25351,6 +25164,204 @@
   </si>
   <si>
     <t>13B_Pro</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User Story: 
+As a user, I want to search and discover music or ringback tones similar to a given music video based on content similarity.	
+Acceptance Criteria:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. The user should be able to iput music videos in the search.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. The search results for the given music videos should be music or ringback tones.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. The search results should be returned based on the content similarity on genre, tempo, beat, and instrumental arragenment.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. The search results should be listed with similarity percentages.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5. The search results could be sorted by different orders: similarity, release date, popularity, rating.
+6. The search results could be filtered by different conditions: similarity, release date.
+7. Proper search handling mechnism, such as partial match.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+8. For failuare search results, propser message should be prompt.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9. The system should provide a preview option for users to listen to a snippet of the results.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10. When there is large amount of similar results being returned, the display of the results should be no significant delay or latency.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+11. The results should be displayed by pages, for each page consist of X results. The number of total results and pages should be correctly displayed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Acceptance Criteria (generated from Model #1)
+1. The user should be able to deposit arbitrarily large files, up to a maximum size of 100MB.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. The user should be able to deposit files of any type, including text, images, audio, and video.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. The user should be able to deposit files that are already stored on the platform, or files that are uploaded from a local device.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. The user should be able to deposit files that are stored in a variety of formats, including text, images, audio, and video.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -25512,21 +25523,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -25540,6 +25536,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -25822,17 +25833,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H41" sqref="D2:H41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="82.26953125" customWidth="1"/>
-    <col min="10" max="10" width="130.7265625" customWidth="1"/>
+    <col min="9" max="9" width="82.28515625" customWidth="1"/>
+    <col min="10" max="10" width="130.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -25862,14 +25875,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" s="7">
+    <row r="2" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="18">
         <v>30</v>
       </c>
       <c r="D2" s="1">
@@ -25888,16 +25901,16 @@
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+    <row r="3" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="1">
         <v>2</v>
       </c>
@@ -25920,10 +25933,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+    <row r="4" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="1">
         <v>3</v>
       </c>
@@ -25946,10 +25959,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+    <row r="5" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="1">
         <v>4</v>
       </c>
@@ -25972,12 +25985,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="B6" s="6">
+    <row r="6" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="17">
         <v>2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="17">
         <v>63</v>
       </c>
       <c r="D6" s="3">
@@ -25996,16 +26009,16 @@
         <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+    <row r="7" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="3">
         <v>2</v>
       </c>
@@ -26028,10 +26041,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+    <row r="8" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="3">
         <v>3</v>
       </c>
@@ -26054,10 +26067,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+    <row r="9" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="3">
         <v>4</v>
       </c>
@@ -26080,12 +26093,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
-      <c r="B10" s="7">
+    <row r="10" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="18">
         <v>3</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="18">
         <v>53</v>
       </c>
       <c r="D10" s="1">
@@ -26104,16 +26117,16 @@
         <v>4</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+    <row r="11" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="1">
         <v>2</v>
       </c>
@@ -26130,16 +26143,16 @@
         <v>5</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+    <row r="12" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="1">
         <v>3</v>
       </c>
@@ -26156,16 +26169,16 @@
         <v>3</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+    <row r="13" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="1">
         <v>4</v>
       </c>
@@ -26182,18 +26195,18 @@
         <v>4</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="B14" s="6">
+    <row r="14" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="17">
         <v>4</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="17">
         <v>37</v>
       </c>
       <c r="D14" s="3">
@@ -26212,16 +26225,16 @@
         <v>4</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+    <row r="15" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="3">
         <v>2</v>
       </c>
@@ -26244,10 +26257,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+    <row r="16" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="3">
         <v>3</v>
       </c>
@@ -26264,16 +26277,16 @@
         <v>1</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+    <row r="17" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="3">
         <v>4</v>
       </c>
@@ -26290,18 +26303,18 @@
         <v>2</v>
       </c>
       <c r="I17" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>186</v>
-      </c>
     </row>
-    <row r="18" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
-      <c r="B18" s="7">
+    <row r="18" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="18">
         <v>5</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="18">
         <v>26</v>
       </c>
       <c r="D18" s="1">
@@ -26326,10 +26339,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+    <row r="19" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="1">
         <v>2</v>
       </c>
@@ -26352,10 +26365,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+    <row r="20" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="1">
         <v>3</v>
       </c>
@@ -26378,10 +26391,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+    <row r="21" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="1">
         <v>4</v>
       </c>
@@ -26404,12 +26417,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
-      <c r="B22" s="6">
+    <row r="22" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="17">
         <v>6</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="17">
         <v>57</v>
       </c>
       <c r="D22" s="3">
@@ -26428,16 +26441,16 @@
         <v>5</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+    <row r="23" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="3">
         <v>2</v>
       </c>
@@ -26460,10 +26473,10 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+    <row r="24" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="3">
         <v>3</v>
       </c>
@@ -26480,16 +26493,16 @@
         <v>3</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+    <row r="25" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="3">
         <v>4</v>
       </c>
@@ -26506,18 +26519,18 @@
         <v>3</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A26" s="10"/>
-      <c r="B26" s="7">
+    <row r="26" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="18">
         <v>7</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="18">
         <v>65</v>
       </c>
       <c r="D26" s="1">
@@ -26536,16 +26549,16 @@
         <v>4</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A27" s="10"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+    <row r="27" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="1">
         <v>2</v>
       </c>
@@ -26568,10 +26581,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A28" s="10"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+    <row r="28" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="1">
         <v>3</v>
       </c>
@@ -26594,10 +26607,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A29" s="10"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+    <row r="29" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="1">
         <v>4</v>
       </c>
@@ -26620,12 +26633,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="10"/>
-      <c r="B30" s="6">
+    <row r="30" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="17">
         <v>8</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="17">
         <v>2</v>
       </c>
       <c r="D30" s="3">
@@ -26644,16 +26657,16 @@
         <v>2</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="10"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+    <row r="31" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="3">
         <v>2</v>
       </c>
@@ -26676,10 +26689,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="10"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+    <row r="32" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="3">
         <v>3</v>
       </c>
@@ -26702,10 +26715,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="10"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+    <row r="33" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="3">
         <v>4</v>
       </c>
@@ -26722,18 +26735,18 @@
         <v>2</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A34" s="10"/>
-      <c r="B34" s="7">
+    <row r="34" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="18">
         <v>9</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="18">
         <v>40</v>
       </c>
       <c r="D34" s="1">
@@ -26755,13 +26768,13 @@
         <v>36</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A35" s="10"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+    <row r="35" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="1">
         <v>2</v>
       </c>
@@ -26781,13 +26794,13 @@
         <v>36</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A36" s="10"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+    <row r="36" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="1">
         <v>3</v>
       </c>
@@ -26810,10 +26823,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A37" s="10"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+    <row r="37" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="1">
         <v>4</v>
       </c>
@@ -26830,18 +26843,18 @@
         <v>4</v>
       </c>
       <c r="I37" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>244</v>
-      </c>
     </row>
-    <row r="38" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="10"/>
-      <c r="B38" s="6">
+    <row r="38" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="17">
         <v>10</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="17">
         <v>58</v>
       </c>
       <c r="D38" s="3">
@@ -26866,10 +26879,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="10"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+    <row r="39" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="3">
         <v>2</v>
       </c>
@@ -26892,10 +26905,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="10"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+    <row r="40" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="3">
         <v>3</v>
       </c>
@@ -26912,16 +26925,16 @@
         <v>5</v>
       </c>
       <c r="I40" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="J40" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>211</v>
-      </c>
     </row>
-    <row r="41" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="10"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
+    <row r="41" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="3">
         <v>4</v>
       </c>
@@ -26941,17 +26954,17 @@
         <v>48</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A42" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B42" s="7">
+    <row r="42" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="B42" s="18">
         <v>1</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="18">
         <v>50</v>
       </c>
       <c r="D42" s="1">
@@ -26976,10 +26989,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A43" s="10"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
+    <row r="43" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="1">
         <v>2</v>
       </c>
@@ -27002,10 +27015,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A44" s="10"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
+    <row r="44" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="1">
         <v>3</v>
       </c>
@@ -27028,10 +27041,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A45" s="10"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
+    <row r="45" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="1">
         <v>4</v>
       </c>
@@ -27048,18 +27061,18 @@
         <v>3</v>
       </c>
       <c r="I45" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>241</v>
-      </c>
     </row>
-    <row r="46" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A46" s="10"/>
-      <c r="B46" s="6">
+    <row r="46" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="17">
         <v>2</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="17">
         <v>27</v>
       </c>
       <c r="D46" s="3">
@@ -27084,10 +27097,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A47" s="10"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
+    <row r="47" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="3">
         <v>2</v>
       </c>
@@ -27110,10 +27123,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A48" s="10"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
+    <row r="48" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="3">
         <v>3</v>
       </c>
@@ -27130,16 +27143,16 @@
         <v>2</v>
       </c>
       <c r="I48" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="J48" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>233</v>
-      </c>
     </row>
-    <row r="49" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A49" s="10"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+    <row r="49" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="3">
         <v>4</v>
       </c>
@@ -27162,12 +27175,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A50" s="10"/>
-      <c r="B50" s="7">
+    <row r="50" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="18">
         <v>3</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="18">
         <v>7</v>
       </c>
       <c r="D50" s="1">
@@ -27192,10 +27205,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A51" s="10"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
+    <row r="51" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="1">
         <v>2</v>
       </c>
@@ -27218,10 +27231,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A52" s="10"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
+    <row r="52" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A52" s="19"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="1">
         <v>3</v>
       </c>
@@ -27244,10 +27257,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A53" s="10"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
+    <row r="53" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A53" s="19"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
       <c r="D53" s="1">
         <v>4</v>
       </c>
@@ -27270,12 +27283,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A54" s="10"/>
-      <c r="B54" s="6">
+    <row r="54" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A54" s="19"/>
+      <c r="B54" s="17">
         <v>4</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="17">
         <v>25</v>
       </c>
       <c r="D54" s="3">
@@ -27300,10 +27313,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A55" s="10"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
+    <row r="55" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A55" s="19"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="3">
         <v>2</v>
       </c>
@@ -27326,10 +27339,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A56" s="10"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
+    <row r="56" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A56" s="19"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="3">
         <v>3</v>
       </c>
@@ -27352,10 +27365,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A57" s="10"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
+    <row r="57" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A57" s="19"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
       <c r="D57" s="3">
         <v>4</v>
       </c>
@@ -27375,15 +27388,15 @@
         <v>67</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A58" s="10"/>
-      <c r="B58" s="7">
+    <row r="58" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A58" s="19"/>
+      <c r="B58" s="18">
         <v>5</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="18">
         <v>11</v>
       </c>
       <c r="D58" s="1">
@@ -27402,16 +27415,16 @@
         <v>5</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A59" s="10"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
+    <row r="59" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A59" s="19"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="1">
         <v>2</v>
       </c>
@@ -27428,16 +27441,16 @@
         <v>5</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A60" s="10"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
+    <row r="60" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A60" s="19"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
       <c r="D60" s="1">
         <v>3</v>
       </c>
@@ -27454,16 +27467,16 @@
         <v>3</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A61" s="10"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
+    <row r="61" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
       <c r="D61" s="1">
         <v>4</v>
       </c>
@@ -27480,18 +27493,18 @@
         <v>4</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A62" s="10"/>
-      <c r="B62" s="6">
+    <row r="62" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A62" s="19"/>
+      <c r="B62" s="17">
         <v>6</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="17">
         <v>26</v>
       </c>
       <c r="D62" s="3">
@@ -27516,10 +27529,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A63" s="10"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
+    <row r="63" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A63" s="19"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="3">
         <v>2</v>
       </c>
@@ -27542,10 +27555,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A64" s="10"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
+    <row r="64" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A64" s="19"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
       <c r="D64" s="3">
         <v>3</v>
       </c>
@@ -27568,10 +27581,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A65" s="10"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
+    <row r="65" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A65" s="19"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
       <c r="D65" s="3">
         <v>4</v>
       </c>
@@ -27594,12 +27607,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A66" s="10"/>
-      <c r="B66" s="7">
+    <row r="66" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A66" s="19"/>
+      <c r="B66" s="18">
         <v>7</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="18">
         <v>16</v>
       </c>
       <c r="D66" s="1">
@@ -27624,10 +27637,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="10"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
+    <row r="67" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A67" s="19"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
       <c r="D67" s="1">
         <v>2</v>
       </c>
@@ -27650,10 +27663,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="10"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
+    <row r="68" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A68" s="19"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
       <c r="D68" s="1">
         <v>3</v>
       </c>
@@ -27676,10 +27689,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="10"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
+    <row r="69" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A69" s="19"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="1">
         <v>4</v>
       </c>
@@ -27702,12 +27715,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A70" s="10"/>
-      <c r="B70" s="6">
+    <row r="70" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A70" s="19"/>
+      <c r="B70" s="17">
         <v>8</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="17">
         <v>21</v>
       </c>
       <c r="D70" s="3">
@@ -27732,10 +27745,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A71" s="10"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
+    <row r="71" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A71" s="19"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
       <c r="D71" s="3">
         <v>2</v>
       </c>
@@ -27758,10 +27771,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A72" s="10"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
+    <row r="72" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A72" s="19"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
       <c r="D72" s="3">
         <v>3</v>
       </c>
@@ -27778,16 +27791,16 @@
         <v>2</v>
       </c>
       <c r="I72" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J72" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="J72" s="4" t="s">
-        <v>237</v>
-      </c>
     </row>
-    <row r="73" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A73" s="10"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
+    <row r="73" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A73" s="19"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
       <c r="D73" s="3">
         <v>4</v>
       </c>
@@ -27810,12 +27823,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A74" s="10"/>
-      <c r="B74" s="7">
+    <row r="74" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A74" s="19"/>
+      <c r="B74" s="18">
         <v>9</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="18">
         <v>8</v>
       </c>
       <c r="D74" s="1">
@@ -27840,10 +27853,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A75" s="10"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
+    <row r="75" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A75" s="19"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
       <c r="D75" s="1">
         <v>2</v>
       </c>
@@ -27866,10 +27879,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A76" s="10"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
+    <row r="76" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A76" s="19"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
       <c r="D76" s="1">
         <v>3</v>
       </c>
@@ -27892,10 +27905,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A77" s="10"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
+    <row r="77" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A77" s="19"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="1">
         <v>4</v>
       </c>
@@ -27918,12 +27931,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="10"/>
-      <c r="B78" s="6">
+    <row r="78" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A78" s="19"/>
+      <c r="B78" s="17">
         <v>10</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="17">
         <v>1</v>
       </c>
       <c r="D78" s="3">
@@ -27948,10 +27961,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="10"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
+    <row r="79" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A79" s="19"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
       <c r="D79" s="3">
         <v>2</v>
       </c>
@@ -27974,10 +27987,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="10"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
+    <row r="80" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A80" s="19"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
       <c r="D80" s="3">
         <v>3</v>
       </c>
@@ -28000,10 +28013,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="10"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
+    <row r="81" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A81" s="19"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
       <c r="D81" s="3">
         <v>4</v>
       </c>
@@ -28026,14 +28039,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A82" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="B82" s="7">
+    <row r="82" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+      <c r="A82" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="B82" s="18">
         <v>1</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="18">
         <v>6</v>
       </c>
       <c r="D82" s="1">
@@ -28058,10 +28071,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A83" s="10"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
+    <row r="83" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+      <c r="A83" s="19"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
       <c r="D83" s="1">
         <v>2</v>
       </c>
@@ -28084,10 +28097,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A84" s="10"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
+    <row r="84" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+      <c r="A84" s="19"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
       <c r="D84" s="1">
         <v>3</v>
       </c>
@@ -28104,16 +28117,16 @@
         <v>4</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A85" s="10"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
+    <row r="85" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+      <c r="A85" s="19"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
       <c r="D85" s="1">
         <v>4</v>
       </c>
@@ -28136,12 +28149,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="10"/>
-      <c r="B86" s="6">
+    <row r="86" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A86" s="19"/>
+      <c r="B86" s="17">
         <v>2</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="17">
         <v>49</v>
       </c>
       <c r="D86" s="3">
@@ -28166,10 +28179,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="10"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
+    <row r="87" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A87" s="19"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
       <c r="D87" s="3">
         <v>2</v>
       </c>
@@ -28192,10 +28205,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="10"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
+    <row r="88" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A88" s="19"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
       <c r="D88" s="3">
         <v>3</v>
       </c>
@@ -28212,16 +28225,16 @@
         <v>2</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="10"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
+    <row r="89" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A89" s="19"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
       <c r="D89" s="3">
         <v>4</v>
       </c>
@@ -28238,18 +28251,18 @@
         <v>3</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="10"/>
-      <c r="B90" s="7">
+    <row r="90" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+      <c r="A90" s="19"/>
+      <c r="B90" s="18">
         <v>3</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="18">
         <v>5</v>
       </c>
       <c r="D90" s="1">
@@ -28274,10 +28287,10 @@
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="10"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
+    <row r="91" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+      <c r="A91" s="19"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
       <c r="D91" s="1">
         <v>2</v>
       </c>
@@ -28300,10 +28313,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="10"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
+    <row r="92" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+      <c r="A92" s="19"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
       <c r="D92" s="1">
         <v>3</v>
       </c>
@@ -28326,10 +28339,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="10"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
+    <row r="93" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+      <c r="A93" s="19"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
       <c r="D93" s="1">
         <v>4</v>
       </c>
@@ -28346,18 +28359,18 @@
         <v>4</v>
       </c>
       <c r="I93" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J93" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>220</v>
-      </c>
     </row>
-    <row r="94" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A94" s="10"/>
-      <c r="B94" s="6">
+    <row r="94" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A94" s="19"/>
+      <c r="B94" s="17">
         <v>4</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="17">
         <v>20</v>
       </c>
       <c r="D94" s="3">
@@ -28376,16 +28389,16 @@
         <v>4</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A95" s="10"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
+    <row r="95" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A95" s="19"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
       <c r="D95" s="3">
         <v>2</v>
       </c>
@@ -28408,10 +28421,10 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A96" s="10"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
+    <row r="96" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A96" s="19"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
       <c r="D96" s="3">
         <v>3</v>
       </c>
@@ -28428,16 +28441,16 @@
         <v>3</v>
       </c>
       <c r="I96" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J96" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="J96" s="4" t="s">
-        <v>224</v>
-      </c>
     </row>
-    <row r="97" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A97" s="10"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
+    <row r="97" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A97" s="19"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
       <c r="D97" s="3">
         <v>4</v>
       </c>
@@ -28454,18 +28467,18 @@
         <v>3</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A98" s="10"/>
-      <c r="B98" s="7">
+    <row r="98" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A98" s="19"/>
+      <c r="B98" s="18">
         <v>5</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="18">
         <v>25</v>
       </c>
       <c r="D98" s="1">
@@ -28490,10 +28503,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A99" s="10"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
+    <row r="99" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A99" s="19"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
       <c r="D99" s="1">
         <v>2</v>
       </c>
@@ -28516,10 +28529,10 @@
         <v>127</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A100" s="10"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
+    <row r="100" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A100" s="19"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
       <c r="D100" s="1">
         <v>3</v>
       </c>
@@ -28536,16 +28549,16 @@
         <v>5</v>
       </c>
       <c r="I100" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J100" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>226</v>
-      </c>
     </row>
-    <row r="101" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A101" s="10"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
+    <row r="101" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A101" s="19"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
       <c r="D101" s="1">
         <v>4</v>
       </c>
@@ -28562,18 +28575,18 @@
         <v>3</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A102" s="10"/>
-      <c r="B102" s="6">
+    <row r="102" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A102" s="19"/>
+      <c r="B102" s="17">
         <v>6</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102" s="17">
         <v>50</v>
       </c>
       <c r="D102" s="3">
@@ -28598,10 +28611,10 @@
         <v>129</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A103" s="10"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
+    <row r="103" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A103" s="19"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
       <c r="D103" s="3">
         <v>2</v>
       </c>
@@ -28624,10 +28637,10 @@
         <v>132</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A104" s="10"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
+    <row r="104" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A104" s="19"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
       <c r="D104" s="3">
         <v>3</v>
       </c>
@@ -28647,13 +28660,13 @@
         <v>128</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A105" s="10"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
+    <row r="105" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A105" s="19"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
       <c r="D105" s="3">
         <v>4</v>
       </c>
@@ -28676,12 +28689,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="10"/>
-      <c r="B106" s="7">
+    <row r="106" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A106" s="19"/>
+      <c r="B106" s="18">
         <v>7</v>
       </c>
-      <c r="C106" s="7">
+      <c r="C106" s="18">
         <v>17</v>
       </c>
       <c r="D106" s="1">
@@ -28706,10 +28719,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="10"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
+    <row r="107" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A107" s="19"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
       <c r="D107" s="1">
         <v>2</v>
       </c>
@@ -28732,10 +28745,10 @@
         <v>136</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A108" s="10"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
+    <row r="108" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A108" s="19"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
       <c r="D108" s="1">
         <v>3</v>
       </c>
@@ -28758,10 +28771,10 @@
         <v>138</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="10"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
+    <row r="109" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A109" s="19"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
       <c r="D109" s="1">
         <v>4</v>
       </c>
@@ -28784,12 +28797,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A110" s="10"/>
-      <c r="B110" s="6">
+    <row r="110" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A110" s="19"/>
+      <c r="B110" s="17">
         <v>8</v>
       </c>
-      <c r="C110" s="6">
+      <c r="C110" s="17">
         <v>3</v>
       </c>
       <c r="D110" s="3">
@@ -28814,10 +28827,10 @@
         <v>176</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A111" s="10"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
+    <row r="111" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A111" s="19"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
       <c r="D111" s="3">
         <v>2</v>
       </c>
@@ -28828,22 +28841,22 @@
         <v>13</v>
       </c>
       <c r="G111" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H111" s="3">
         <v>7</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>179</v>
+        <v>456</v>
       </c>
       <c r="J111" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A112" s="10"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
+    <row r="112" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A112" s="19"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
       <c r="D112" s="3">
         <v>3</v>
       </c>
@@ -28860,16 +28873,16 @@
         <v>4</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J112" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A113" s="10"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
+    <row r="113" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A113" s="19"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
       <c r="D113" s="3">
         <v>4</v>
       </c>
@@ -28886,18 +28899,18 @@
         <v>8</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J113" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A114" s="10"/>
-      <c r="B114" s="7">
+    <row r="114" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A114" s="19"/>
+      <c r="B114" s="18">
         <v>9</v>
       </c>
-      <c r="C114" s="7">
+      <c r="C114" s="18">
         <v>15</v>
       </c>
       <c r="D114" s="1">
@@ -28916,16 +28929,16 @@
         <v>6</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A115" s="10"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
+    <row r="115" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A115" s="19"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
       <c r="D115" s="1">
         <v>2</v>
       </c>
@@ -28948,10 +28961,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A116" s="10"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
+    <row r="116" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A116" s="19"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
       <c r="D116" s="1">
         <v>3</v>
       </c>
@@ -28974,10 +28987,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A117" s="10"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
+    <row r="117" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A117" s="19"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
       <c r="D117" s="1">
         <v>4</v>
       </c>
@@ -29000,12 +29013,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="10"/>
-      <c r="B118" s="6">
+    <row r="118" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A118" s="19"/>
+      <c r="B118" s="17">
         <v>10</v>
       </c>
-      <c r="C118" s="6">
+      <c r="C118" s="17">
         <v>21</v>
       </c>
       <c r="D118" s="3">
@@ -29030,10 +29043,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="10"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
+    <row r="119" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A119" s="19"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
       <c r="D119" s="3">
         <v>2</v>
       </c>
@@ -29056,10 +29069,10 @@
         <v>152</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="10"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
+    <row r="120" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A120" s="19"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
       <c r="D120" s="3">
         <v>3</v>
       </c>
@@ -29082,10 +29095,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="10"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
+    <row r="121" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A121" s="19"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
       <c r="D121" s="3">
         <v>4</v>
       </c>
@@ -29184,19 +29197,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23DBE4D-E62C-413E-BCC7-F6456AC5EB7C}">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="H14" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="82.26953125" customWidth="1"/>
-    <col min="10" max="10" width="130.7265625" customWidth="1"/>
+    <col min="9" max="9" width="82.28515625" customWidth="1"/>
+    <col min="10" max="10" width="130.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -29226,14 +29239,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" s="7">
+    <row r="2" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="18">
         <v>30</v>
       </c>
       <c r="D2" s="1">
@@ -29251,17 +29264,17 @@
       <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>250</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+    <row r="3" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="1">
         <v>2</v>
       </c>
@@ -29277,17 +29290,17 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>249</v>
+      <c r="I3" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+    <row r="4" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="1">
         <v>3</v>
       </c>
@@ -29303,17 +29316,17 @@
       <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>249</v>
+      <c r="I4" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+    <row r="5" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="1">
         <v>4</v>
       </c>
@@ -29330,18 +29343,18 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>254</v>
-      </c>
     </row>
-    <row r="6" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
-      <c r="B6" s="6">
+    <row r="6" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="17">
         <v>2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="17">
         <v>63</v>
       </c>
       <c r="D6" s="3">
@@ -29360,16 +29373,16 @@
         <v>2</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>256</v>
-      </c>
     </row>
-    <row r="7" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+    <row r="7" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="3">
         <v>2</v>
       </c>
@@ -29386,16 +29399,16 @@
         <v>3</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>258</v>
-      </c>
     </row>
-    <row r="8" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+    <row r="8" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="3">
         <v>3</v>
       </c>
@@ -29412,16 +29425,16 @@
         <v>1</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>260</v>
-      </c>
     </row>
-    <row r="9" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+    <row r="9" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="3">
         <v>4</v>
       </c>
@@ -29438,18 +29451,18 @@
         <v>3</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>262</v>
-      </c>
     </row>
-    <row r="10" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7">
+    <row r="10" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="18">
         <v>3</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="18">
         <v>53</v>
       </c>
       <c r="D10" s="1">
@@ -29468,16 +29481,16 @@
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>264</v>
-      </c>
     </row>
-    <row r="11" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+    <row r="11" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="1">
         <v>2</v>
       </c>
@@ -29494,16 +29507,16 @@
         <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>266</v>
-      </c>
     </row>
-    <row r="12" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+    <row r="12" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="1">
         <v>3</v>
       </c>
@@ -29520,16 +29533,16 @@
         <v>3</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>268</v>
-      </c>
     </row>
-    <row r="13" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+    <row r="13" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="1">
         <v>4</v>
       </c>
@@ -29546,18 +29559,18 @@
         <v>3</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="6">
+    <row r="14" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="17">
         <v>4</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="17">
         <v>37</v>
       </c>
       <c r="D14" s="3">
@@ -29576,16 +29589,16 @@
         <v>1</v>
       </c>
       <c r="I14" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>271</v>
-      </c>
     </row>
-    <row r="15" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+    <row r="15" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="3">
         <v>2</v>
       </c>
@@ -29602,16 +29615,16 @@
         <v>1</v>
       </c>
       <c r="I15" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>273</v>
-      </c>
     </row>
-    <row r="16" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+    <row r="16" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="3">
         <v>3</v>
       </c>
@@ -29628,16 +29641,16 @@
         <v>1</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+    <row r="17" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="3">
         <v>4</v>
       </c>
@@ -29654,18 +29667,18 @@
         <v>1</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="B18" s="7">
+    <row r="18" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="18">
         <v>5</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="18">
         <v>26</v>
       </c>
       <c r="D18" s="1">
@@ -29687,13 +29700,13 @@
         <v>23</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+    <row r="19" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="1">
         <v>2</v>
       </c>
@@ -29713,13 +29726,13 @@
         <v>27</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+    <row r="20" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="1">
         <v>3</v>
       </c>
@@ -29736,16 +29749,16 @@
         <v>1</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>279</v>
-      </c>
     </row>
-    <row r="21" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+    <row r="21" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="1">
         <v>4</v>
       </c>
@@ -29765,15 +29778,15 @@
         <v>27</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="9"/>
-      <c r="B22" s="6">
+    <row r="22" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="17">
         <v>6</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="17">
         <v>57</v>
       </c>
       <c r="D22" s="3">
@@ -29792,16 +29805,16 @@
         <v>1</v>
       </c>
       <c r="I22" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>282</v>
-      </c>
     </row>
-    <row r="23" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+    <row r="23" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="3">
         <v>2</v>
       </c>
@@ -29818,16 +29831,16 @@
         <v>1</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>284</v>
-      </c>
     </row>
-    <row r="24" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+    <row r="24" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="3">
         <v>3</v>
       </c>
@@ -29844,16 +29857,16 @@
         <v>1</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>286</v>
-      </c>
     </row>
-    <row r="25" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+    <row r="25" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="3">
         <v>4</v>
       </c>
@@ -29870,18 +29883,18 @@
         <v>1</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
-      <c r="B26" s="7">
+    <row r="26" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="18">
         <v>7</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="18">
         <v>65</v>
       </c>
       <c r="D26" s="1">
@@ -29900,16 +29913,16 @@
         <v>2</v>
       </c>
       <c r="I26" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>289</v>
-      </c>
     </row>
-    <row r="27" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+    <row r="27" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="1">
         <v>2</v>
       </c>
@@ -29926,16 +29939,16 @@
         <v>2</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+    <row r="28" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="1">
         <v>3</v>
       </c>
@@ -29952,16 +29965,16 @@
         <v>1</v>
       </c>
       <c r="I28" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>292</v>
-      </c>
     </row>
-    <row r="29" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+    <row r="29" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="1">
         <v>4</v>
       </c>
@@ -29978,18 +29991,18 @@
         <v>2</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
-      <c r="B30" s="6">
+    <row r="30" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="17">
         <v>8</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="17">
         <v>2</v>
       </c>
       <c r="D30" s="3">
@@ -30008,16 +30021,16 @@
         <v>0</v>
       </c>
       <c r="I30" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>295</v>
-      </c>
     </row>
-    <row r="31" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+    <row r="31" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="3">
         <v>2</v>
       </c>
@@ -30034,16 +30047,16 @@
         <v>1</v>
       </c>
       <c r="I31" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>297</v>
-      </c>
     </row>
-    <row r="32" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="9"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+    <row r="32" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="3">
         <v>3</v>
       </c>
@@ -30060,16 +30073,16 @@
         <v>1</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="9"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+    <row r="33" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="3">
         <v>4</v>
       </c>
@@ -30086,18 +30099,18 @@
         <v>0</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A34" s="9"/>
-      <c r="B34" s="7">
+    <row r="34" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="18">
         <v>9</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="18">
         <v>40</v>
       </c>
       <c r="D34" s="1">
@@ -30116,16 +30129,16 @@
         <v>2</v>
       </c>
       <c r="I34" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>301</v>
-      </c>
     </row>
-    <row r="35" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A35" s="9"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+    <row r="35" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="1">
         <v>2</v>
       </c>
@@ -30142,16 +30155,16 @@
         <v>2</v>
       </c>
       <c r="I35" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>303</v>
-      </c>
     </row>
-    <row r="36" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A36" s="9"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+    <row r="36" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="1">
         <v>3</v>
       </c>
@@ -30168,16 +30181,16 @@
         <v>0</v>
       </c>
       <c r="I36" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>305</v>
-      </c>
     </row>
-    <row r="37" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A37" s="9"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+    <row r="37" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="1">
         <v>4</v>
       </c>
@@ -30194,18 +30207,18 @@
         <v>1</v>
       </c>
       <c r="I37" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>307</v>
-      </c>
     </row>
-    <row r="38" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="9"/>
-      <c r="B38" s="6">
+    <row r="38" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="17">
         <v>10</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="17">
         <v>58</v>
       </c>
       <c r="D38" s="3">
@@ -30224,16 +30237,16 @@
         <v>1</v>
       </c>
       <c r="I38" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>309</v>
-      </c>
     </row>
-    <row r="39" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="9"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+    <row r="39" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="3">
         <v>2</v>
       </c>
@@ -30250,16 +30263,16 @@
         <v>2</v>
       </c>
       <c r="I39" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="J39" s="4" t="s">
-        <v>311</v>
-      </c>
     </row>
-    <row r="40" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="9"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+    <row r="40" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="3">
         <v>3</v>
       </c>
@@ -30276,16 +30289,16 @@
         <v>3</v>
       </c>
       <c r="I40" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="J40" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>313</v>
-      </c>
     </row>
-    <row r="41" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="9"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
+    <row r="41" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="3">
         <v>4</v>
       </c>
@@ -30302,20 +30315,20 @@
         <v>3</v>
       </c>
       <c r="I41" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J41" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="J41" s="4" t="s">
-        <v>315</v>
-      </c>
     </row>
-    <row r="42" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A42" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="B42" s="7">
+    <row r="42" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="B42" s="18">
         <v>1</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="18">
         <v>50</v>
       </c>
       <c r="D42" s="1">
@@ -30334,16 +30347,16 @@
         <v>1</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A43" s="9"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
+    <row r="43" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="1">
         <v>2</v>
       </c>
@@ -30360,16 +30373,16 @@
         <v>1</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A44" s="9"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
+    <row r="44" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="1">
         <v>3</v>
       </c>
@@ -30386,16 +30399,16 @@
         <v>1</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A45" s="9"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
+    <row r="45" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="1">
         <v>4</v>
       </c>
@@ -30412,18 +30425,18 @@
         <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A46" s="9"/>
-      <c r="B46" s="6">
+    <row r="46" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="17">
         <v>2</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="17">
         <v>27</v>
       </c>
       <c r="D46" s="3">
@@ -30442,16 +30455,16 @@
         <v>1</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A47" s="9"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
+    <row r="47" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="3">
         <v>2</v>
       </c>
@@ -30468,16 +30481,16 @@
         <v>1</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A48" s="9"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
+    <row r="48" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="3">
         <v>3</v>
       </c>
@@ -30494,16 +30507,16 @@
         <v>2</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A49" s="9"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+    <row r="49" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="3">
         <v>4</v>
       </c>
@@ -30520,18 +30533,18 @@
         <v>1</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A50" s="9"/>
-      <c r="B50" s="7">
+    <row r="50" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A50" s="21"/>
+      <c r="B50" s="18">
         <v>3</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="18">
         <v>7</v>
       </c>
       <c r="D50" s="1">
@@ -30550,16 +30563,16 @@
         <v>0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A51" s="9"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
+    <row r="51" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="1">
         <v>2</v>
       </c>
@@ -30576,16 +30589,16 @@
         <v>0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A52" s="9"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
+    <row r="52" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="1">
         <v>3</v>
       </c>
@@ -30602,16 +30615,16 @@
         <v>2</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A53" s="9"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
+    <row r="53" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
       <c r="D53" s="1">
         <v>4</v>
       </c>
@@ -30628,18 +30641,18 @@
         <v>2</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A54" s="9"/>
-      <c r="B54" s="6">
+    <row r="54" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+      <c r="B54" s="17">
         <v>4</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="17">
         <v>25</v>
       </c>
       <c r="D54" s="3">
@@ -30658,16 +30671,16 @@
         <v>1</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A55" s="9"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
+    <row r="55" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="3">
         <v>2</v>
       </c>
@@ -30684,16 +30697,16 @@
         <v>1</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A56" s="9"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
+    <row r="56" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A56" s="21"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="3">
         <v>3</v>
       </c>
@@ -30710,16 +30723,16 @@
         <v>2</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A57" s="9"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
+    <row r="57" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A57" s="21"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
       <c r="D57" s="3">
         <v>4</v>
       </c>
@@ -30736,18 +30749,18 @@
         <v>4</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A58" s="9"/>
-      <c r="B58" s="7">
+    <row r="58" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A58" s="21"/>
+      <c r="B58" s="18">
         <v>5</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="18">
         <v>11</v>
       </c>
       <c r="D58" s="1">
@@ -30766,16 +30779,16 @@
         <v>0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A59" s="9"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
+    <row r="59" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="1">
         <v>2</v>
       </c>
@@ -30792,16 +30805,16 @@
         <v>0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A60" s="9"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
+    <row r="60" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A60" s="21"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
       <c r="D60" s="1">
         <v>3</v>
       </c>
@@ -30818,16 +30831,16 @@
         <v>0</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A61" s="9"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
+    <row r="61" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A61" s="21"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
       <c r="D61" s="1">
         <v>4</v>
       </c>
@@ -30844,18 +30857,18 @@
         <v>0</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A62" s="9"/>
-      <c r="B62" s="6">
+    <row r="62" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A62" s="21"/>
+      <c r="B62" s="17">
         <v>6</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="17">
         <v>26</v>
       </c>
       <c r="D62" s="3">
@@ -30874,16 +30887,16 @@
         <v>2</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A63" s="9"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
+    <row r="63" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A63" s="21"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="3">
         <v>2</v>
       </c>
@@ -30900,16 +30913,16 @@
         <v>1</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A64" s="9"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
+    <row r="64" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A64" s="21"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
       <c r="D64" s="3">
         <v>3</v>
       </c>
@@ -30926,16 +30939,16 @@
         <v>1</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A65" s="9"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
+    <row r="65" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A65" s="21"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
       <c r="D65" s="3">
         <v>4</v>
       </c>
@@ -30952,18 +30965,18 @@
         <v>3</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="9"/>
-      <c r="B66" s="7">
+    <row r="66" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A66" s="21"/>
+      <c r="B66" s="18">
         <v>7</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="18">
         <v>16</v>
       </c>
       <c r="D66" s="1">
@@ -30982,16 +30995,16 @@
         <v>0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="9"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
+    <row r="67" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A67" s="21"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
       <c r="D67" s="1">
         <v>2</v>
       </c>
@@ -31008,16 +31021,16 @@
         <v>0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="9"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
+    <row r="68" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A68" s="21"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
       <c r="D68" s="1">
         <v>3</v>
       </c>
@@ -31034,16 +31047,16 @@
         <v>0</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="9"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
+    <row r="69" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A69" s="21"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="1">
         <v>4</v>
       </c>
@@ -31060,18 +31073,18 @@
         <v>0</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A70" s="9"/>
-      <c r="B70" s="6">
+    <row r="70" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A70" s="21"/>
+      <c r="B70" s="17">
         <v>8</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="17">
         <v>21</v>
       </c>
       <c r="D70" s="3">
@@ -31090,16 +31103,16 @@
         <v>1</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A71" s="9"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
+    <row r="71" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A71" s="21"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
       <c r="D71" s="3">
         <v>2</v>
       </c>
@@ -31116,16 +31129,16 @@
         <v>1</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A72" s="9"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
+    <row r="72" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A72" s="21"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
       <c r="D72" s="3">
         <v>3</v>
       </c>
@@ -31142,16 +31155,16 @@
         <v>2</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A73" s="9"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
+    <row r="73" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A73" s="21"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
       <c r="D73" s="3">
         <v>4</v>
       </c>
@@ -31168,18 +31181,18 @@
         <v>1</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A74" s="9"/>
-      <c r="B74" s="7">
+    <row r="74" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A74" s="21"/>
+      <c r="B74" s="18">
         <v>9</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="18">
         <v>8</v>
       </c>
       <c r="D74" s="1">
@@ -31198,16 +31211,16 @@
         <v>1</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>374</v>
+        <v>457</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A75" s="9"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
+    <row r="75" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A75" s="21"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
       <c r="D75" s="1">
         <v>2</v>
       </c>
@@ -31224,16 +31237,16 @@
         <v>2</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A76" s="9"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
+    <row r="76" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
       <c r="D76" s="1">
         <v>3</v>
       </c>
@@ -31250,16 +31263,16 @@
         <v>1</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A77" s="9"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
+    <row r="77" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A77" s="21"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="1">
         <v>4</v>
       </c>
@@ -31276,18 +31289,18 @@
         <v>2</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="9"/>
-      <c r="B78" s="6">
+    <row r="78" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A78" s="21"/>
+      <c r="B78" s="17">
         <v>10</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="17">
         <v>1</v>
       </c>
       <c r="D78" s="3">
@@ -31306,16 +31319,16 @@
         <v>0</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="9"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
+    <row r="79" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A79" s="21"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
       <c r="D79" s="3">
         <v>2</v>
       </c>
@@ -31332,16 +31345,16 @@
         <v>0</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="9"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
+    <row r="80" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A80" s="21"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
       <c r="D80" s="3">
         <v>3</v>
       </c>
@@ -31358,16 +31371,16 @@
         <v>0</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="9"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
+    <row r="81" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A81" s="21"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
       <c r="D81" s="3">
         <v>4</v>
       </c>
@@ -31384,20 +31397,20 @@
         <v>0</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A82" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="B82" s="7">
+    <row r="82" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="B82" s="18">
         <v>1</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="18">
         <v>6</v>
       </c>
       <c r="D82" s="1">
@@ -31416,16 +31429,16 @@
         <v>0</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A83" s="9"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
+    <row r="83" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+      <c r="A83" s="21"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
       <c r="D83" s="1">
         <v>2</v>
       </c>
@@ -31442,16 +31455,16 @@
         <v>0</v>
       </c>
       <c r="I83" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="J83" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>384</v>
-      </c>
     </row>
-    <row r="84" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A84" s="9"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
+    <row r="84" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+      <c r="A84" s="21"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
       <c r="D84" s="1">
         <v>3</v>
       </c>
@@ -31468,16 +31481,16 @@
         <v>0</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A85" s="9"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
+    <row r="85" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+      <c r="A85" s="21"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
       <c r="D85" s="1">
         <v>4</v>
       </c>
@@ -31494,18 +31507,18 @@
         <v>1</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="9"/>
-      <c r="B86" s="6">
+    <row r="86" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A86" s="21"/>
+      <c r="B86" s="17">
         <v>2</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="17">
         <v>49</v>
       </c>
       <c r="D86" s="3">
@@ -31524,16 +31537,16 @@
         <v>1</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="9"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
+    <row r="87" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A87" s="21"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
       <c r="D87" s="3">
         <v>2</v>
       </c>
@@ -31550,16 +31563,16 @@
         <v>1</v>
       </c>
       <c r="I87" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="J87" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="J87" s="4" t="s">
-        <v>390</v>
-      </c>
     </row>
-    <row r="88" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="9"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
+    <row r="88" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A88" s="21"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
       <c r="D88" s="3">
         <v>3</v>
       </c>
@@ -31576,16 +31589,16 @@
         <v>1</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="9"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
+    <row r="89" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A89" s="21"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
       <c r="D89" s="3">
         <v>4</v>
       </c>
@@ -31602,18 +31615,18 @@
         <v>1</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="9"/>
-      <c r="B90" s="7">
+    <row r="90" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+      <c r="A90" s="21"/>
+      <c r="B90" s="18">
         <v>3</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="18">
         <v>5</v>
       </c>
       <c r="D90" s="1">
@@ -31632,16 +31645,16 @@
         <v>0</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="9"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
+    <row r="91" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+      <c r="A91" s="21"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
       <c r="D91" s="1">
         <v>2</v>
       </c>
@@ -31658,16 +31671,16 @@
         <v>1</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="9"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
+    <row r="92" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+      <c r="A92" s="21"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
       <c r="D92" s="1">
         <v>3</v>
       </c>
@@ -31684,16 +31697,16 @@
         <v>0</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="9"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
+    <row r="93" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+      <c r="A93" s="21"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
       <c r="D93" s="1">
         <v>4</v>
       </c>
@@ -31710,18 +31723,18 @@
         <v>1</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A94" s="9"/>
-      <c r="B94" s="6">
+    <row r="94" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A94" s="21"/>
+      <c r="B94" s="17">
         <v>4</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="17">
         <v>20</v>
       </c>
       <c r="D94" s="3">
@@ -31740,16 +31753,16 @@
         <v>1</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A95" s="9"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
+    <row r="95" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A95" s="21"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
       <c r="D95" s="3">
         <v>2</v>
       </c>
@@ -31766,16 +31779,16 @@
         <v>2</v>
       </c>
       <c r="I95" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="J95" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="J95" s="4" t="s">
-        <v>401</v>
-      </c>
     </row>
-    <row r="96" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A96" s="9"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
+    <row r="96" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A96" s="21"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
       <c r="D96" s="3">
         <v>3</v>
       </c>
@@ -31792,16 +31805,16 @@
         <v>1</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A97" s="9"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
+    <row r="97" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A97" s="21"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
       <c r="D97" s="3">
         <v>4</v>
       </c>
@@ -31818,18 +31831,18 @@
         <v>1</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A98" s="9"/>
-      <c r="B98" s="7">
+    <row r="98" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A98" s="21"/>
+      <c r="B98" s="18">
         <v>5</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="18">
         <v>25</v>
       </c>
       <c r="D98" s="1">
@@ -31848,16 +31861,16 @@
         <v>1</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A99" s="9"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
+    <row r="99" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A99" s="21"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
       <c r="D99" s="1">
         <v>2</v>
       </c>
@@ -31874,16 +31887,16 @@
         <v>2</v>
       </c>
       <c r="I99" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J99" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>406</v>
-      </c>
     </row>
-    <row r="100" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A100" s="9"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
+    <row r="100" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A100" s="21"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
       <c r="D100" s="1">
         <v>3</v>
       </c>
@@ -31900,16 +31913,16 @@
         <v>1</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A101" s="9"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
+    <row r="101" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A101" s="21"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
       <c r="D101" s="1">
         <v>4</v>
       </c>
@@ -31926,18 +31939,18 @@
         <v>1</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A102" s="9"/>
-      <c r="B102" s="6">
+    <row r="102" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A102" s="21"/>
+      <c r="B102" s="17">
         <v>6</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102" s="17">
         <v>50</v>
       </c>
       <c r="D102" s="3">
@@ -31956,16 +31969,16 @@
         <v>0</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A103" s="9"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
+    <row r="103" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A103" s="21"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
       <c r="D103" s="3">
         <v>2</v>
       </c>
@@ -31982,16 +31995,16 @@
         <v>2</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A104" s="9"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
+    <row r="104" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A104" s="21"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
       <c r="D104" s="3">
         <v>3</v>
       </c>
@@ -32011,13 +32024,13 @@
         <v>128</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A105" s="9"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
+    <row r="105" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A105" s="21"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
       <c r="D105" s="3">
         <v>4</v>
       </c>
@@ -32034,18 +32047,18 @@
         <v>2</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="9"/>
-      <c r="B106" s="7">
+    <row r="106" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A106" s="21"/>
+      <c r="B106" s="18">
         <v>7</v>
       </c>
-      <c r="C106" s="7">
+      <c r="C106" s="18">
         <v>17</v>
       </c>
       <c r="D106" s="1">
@@ -32064,16 +32077,16 @@
         <v>2</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="9"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
+    <row r="107" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A107" s="21"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
       <c r="D107" s="1">
         <v>2</v>
       </c>
@@ -32090,16 +32103,16 @@
         <v>2</v>
       </c>
       <c r="I107" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J107" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>417</v>
-      </c>
     </row>
-    <row r="108" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A108" s="9"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
+    <row r="108" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A108" s="21"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
       <c r="D108" s="1">
         <v>3</v>
       </c>
@@ -32116,16 +32129,16 @@
         <v>0</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="9"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
+    <row r="109" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A109" s="21"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
       <c r="D109" s="1">
         <v>4</v>
       </c>
@@ -32142,18 +32155,18 @@
         <v>0</v>
       </c>
       <c r="I109" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="J109" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>420</v>
-      </c>
     </row>
-    <row r="110" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A110" s="9"/>
-      <c r="B110" s="6">
+    <row r="110" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A110" s="21"/>
+      <c r="B110" s="17">
         <v>8</v>
       </c>
-      <c r="C110" s="6">
+      <c r="C110" s="17">
         <v>3</v>
       </c>
       <c r="D110" s="3">
@@ -32172,16 +32185,16 @@
         <v>1</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A111" s="9"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
+    <row r="111" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A111" s="21"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
       <c r="D111" s="3">
         <v>2</v>
       </c>
@@ -32198,16 +32211,16 @@
         <v>1</v>
       </c>
       <c r="I111" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="J111" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="J111" s="4" t="s">
-        <v>423</v>
-      </c>
     </row>
-    <row r="112" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A112" s="9"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
+    <row r="112" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A112" s="21"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
       <c r="D112" s="3">
         <v>3</v>
       </c>
@@ -32224,16 +32237,16 @@
         <v>2</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A113" s="9"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
+    <row r="113" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A113" s="21"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
       <c r="D113" s="3">
         <v>4</v>
       </c>
@@ -32250,18 +32263,18 @@
         <v>2</v>
       </c>
       <c r="I113" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="J113" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="J113" s="4" t="s">
-        <v>426</v>
-      </c>
     </row>
-    <row r="114" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A114" s="9"/>
-      <c r="B114" s="7">
+    <row r="114" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A114" s="21"/>
+      <c r="B114" s="18">
         <v>9</v>
       </c>
-      <c r="C114" s="7">
+      <c r="C114" s="18">
         <v>15</v>
       </c>
       <c r="D114" s="1">
@@ -32280,16 +32293,16 @@
         <v>1</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A115" s="9"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
+    <row r="115" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A115" s="21"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
       <c r="D115" s="1">
         <v>2</v>
       </c>
@@ -32306,16 +32319,16 @@
         <v>1</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A116" s="9"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
+    <row r="116" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A116" s="21"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
       <c r="D116" s="1">
         <v>3</v>
       </c>
@@ -32332,16 +32345,16 @@
         <v>1</v>
       </c>
       <c r="I116" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="J116" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>431</v>
-      </c>
     </row>
-    <row r="117" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A117" s="9"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
+    <row r="117" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A117" s="21"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
       <c r="D117" s="1">
         <v>4</v>
       </c>
@@ -32358,18 +32371,18 @@
         <v>1</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="9"/>
-      <c r="B118" s="6">
+    <row r="118" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A118" s="21"/>
+      <c r="B118" s="17">
         <v>10</v>
       </c>
-      <c r="C118" s="6">
+      <c r="C118" s="17">
         <v>21</v>
       </c>
       <c r="D118" s="3">
@@ -32388,16 +32401,16 @@
         <v>1</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="9"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
+    <row r="119" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A119" s="21"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
       <c r="D119" s="3">
         <v>2</v>
       </c>
@@ -32414,16 +32427,16 @@
         <v>1</v>
       </c>
       <c r="I119" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="J119" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="J119" s="4" t="s">
-        <v>435</v>
-      </c>
     </row>
-    <row r="120" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="9"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
+    <row r="120" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A120" s="21"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
       <c r="D120" s="3">
         <v>3</v>
       </c>
@@ -32440,16 +32453,16 @@
         <v>1</v>
       </c>
       <c r="I120" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="J120" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="J120" s="4" t="s">
-        <v>435</v>
-      </c>
     </row>
-    <row r="121" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="9"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
+    <row r="121" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A121" s="21"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
       <c r="D121" s="3">
         <v>4</v>
       </c>
@@ -32466,10 +32479,10 @@
         <v>0</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -32492,11 +32505,12 @@
     <mergeCell ref="C90:C93"/>
     <mergeCell ref="B94:B97"/>
     <mergeCell ref="C94:C97"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="A42:A81"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
     <mergeCell ref="B82:B85"/>
     <mergeCell ref="C82:C85"/>
     <mergeCell ref="A82:A121"/>
@@ -32506,19 +32520,18 @@
     <mergeCell ref="C66:C69"/>
     <mergeCell ref="B70:B73"/>
     <mergeCell ref="C70:C73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="A42:A81"/>
     <mergeCell ref="B50:B53"/>
     <mergeCell ref="C50:C53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:C61"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="C38:C41"/>
     <mergeCell ref="A2:A41"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="C42:C45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:C49"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="B30:B33"/>
@@ -32546,197 +32559,197 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E1EB95-4C05-4849-88EA-7538BDE2722D}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="D2" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.46798969548969555</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.4437962962962963</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.60595182595182595</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.51285196285196277</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.32666657416657419</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.45468614718614719</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.37183769933769928</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.45709595959595961</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>450</v>
+      </c>
+      <c r="B11" t="s">
+        <v>451</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.11504088504088504</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.41722222222222227</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="B3" t="s">
-        <v>443</v>
-      </c>
-      <c r="C3" s="17">
-        <v>0.46798969548969555</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0.4437962962962963</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B12" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.14167906167906166</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0.42880952380952375</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>444</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="C4" s="20">
-        <v>0.60292152292152301</v>
-      </c>
-      <c r="D4" s="20">
-        <v>0.51285196285196277</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="B13" t="s">
+        <v>453</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.12972462722462721</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.4143386243386244</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>446</v>
-      </c>
-      <c r="B5" t="s">
-        <v>447</v>
-      </c>
-      <c r="C5" s="17">
-        <v>0.32666657416657419</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0.45468614718614719</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="C6" s="20">
-        <v>0.37183769933769928</v>
-      </c>
-      <c r="D6" s="20">
-        <v>0.45709595959595961</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>452</v>
-      </c>
-      <c r="B11" t="s">
-        <v>453</v>
-      </c>
-      <c r="C11" s="17">
-        <v>0.11504088504088504</v>
-      </c>
-      <c r="D11" s="17">
-        <v>0.41722222222222227</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
-        <v>444</v>
-      </c>
-      <c r="B12" s="19" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="C12" s="20">
-        <v>0.14167906167906166</v>
-      </c>
-      <c r="D12" s="20">
-        <v>0.42880952380952375</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>446</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B14" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="C13" s="17">
-        <v>0.12972462722462721</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0.4143386243386244</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
-        <v>456</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="C14" s="20">
+      <c r="C14" s="15">
         <v>0.17047656047656048</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="12">
         <v>0.36862914862914858</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
